--- a/biology/Médecine/1566_en_santé_et_médecine/1566_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1566_en_santé_et_médecine/1566_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1566_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1566_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1566 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1566_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1566_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30 mai : L'empereur Maximilien II érige l'École de Strasbourg en Académie et lui concède, entre autres droits universitaires, celui d'enseigner la médecine[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 mai : L'empereur Maximilien II érige l'École de Strasbourg en Académie et lui concède, entre autres droits universitaires, celui d'enseigner la médecine.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1566_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1566_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>26 avril : Mort de Diane de Poitiers, vraisemblablement victime d'une intoxication chronique à l'or potable[2].
-« Le pape Pie V accorde le droit de pratiquer l'anatomie sur les cadavres de Juifs ou d'infidèles exécutés[3]. »</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>26 avril : Mort de Diane de Poitiers, vraisemblablement victime d'une intoxication chronique à l'or potable.
+« Le pape Pie V accorde le droit de pratiquer l'anatomie sur les cadavres de Juifs ou d'infidèles exécutés. »</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1566_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1566_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Henman Iselin-Werrenfels (mort en 1610), apothicaire à Bâle[4].
-Michael Sendivogius (mort en 1636 ou 1646), alchimiste et médecin polonais[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Henman Iselin-Werrenfels (mort en 1610), apothicaire à Bâle.
+Michael Sendivogius (mort en 1636 ou 1646), alchimiste et médecin polonais.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1566_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1566_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,12 +621,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10 mai : Leonhart Fuchs (né en 1501), médecin et botaniste bavarois[6].
-2 juillet : Nostradamus (né en 1503), apothicaire, médecin et astrologue provençal[7].
-27 septembre : Guillaume Rondelet (né en 1507), médecin et naturaliste français[8],[9].
-Simon de Bourges (né à une date inconnue), médecin de Charles IX, roi de France[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 mai : Leonhart Fuchs (né en 1501), médecin et botaniste bavarois.
+2 juillet : Nostradamus (né en 1503), apothicaire, médecin et astrologue provençal.
+27 septembre : Guillaume Rondelet (né en 1507), médecin et naturaliste français,.
+Simon de Bourges (né à une date inconnue), médecin de Charles IX, roi de France.
 </t>
         </is>
       </c>
